--- a/CardaData/DataSource - CargaLataflex2344.xlsx
+++ b/CardaData/DataSource - CargaLataflex2344.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\CardaData\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\CardaData\CardaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4062C872-D978-4FDF-997A-C8A9F8043563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE56E3B-83DD-43D3-9E51-F4BB8B60A262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Usuario</t>
   </si>
@@ -61,6 +62,36 @@
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>Fila</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>CodPAS</t>
+  </si>
+  <si>
+    <t>TipoVivienda</t>
+  </si>
+  <si>
+    <t>Directo (Answer)</t>
+  </si>
+  <si>
+    <t>Permanente</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>L.F. Casa/Dpto PB 1° Piso</t>
+  </si>
+  <si>
+    <t>L.F. Country</t>
+  </si>
+  <si>
+    <t>L.F. Dpto 2° Piso o superior</t>
   </si>
 </sst>
 </file>
@@ -111,10 +142,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -396,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="C4:D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -438,31 +475,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -470,9 +507,98 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9A97D6B9-B8FF-4E1E-8511-84B4E34F4F57}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{04867D10-01BE-4586-95C6-FF30A5707E47}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{04867D10-01BE-4586-95C6-FF30A5707E47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72825B64-DB71-4A1B-BF55-10199D27B7F7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2344</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2344</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2344</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>